--- a/trac_tongue/xlsx/MU4-16-20190111-7.xlsx
+++ b/trac_tongue/xlsx/MU4-16-20190111-7.xlsx
@@ -6139,7 +6139,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>2.4655547498187076</v>
+        <v>2.2480058013052924</v>
       </c>
       <c r="D2" t="str">
         <v>points-0</v>
       </c>
       <c r="E2">
-        <v>53.17485491071429</v>
+        <v>51.078091517857146</v>
       </c>
       <c r="F2">
-        <v>98.81599888392857</v>
+        <v>117.76</v>
       </c>
       <c r="G2" t="str">
         <v>#F44336</v>
@@ -6192,22 +6192,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2.538071065989846</v>
+        <v>2.320522117476431</v>
       </c>
       <c r="D3" t="str">
         <v>points-0</v>
       </c>
       <c r="E3">
-        <v>52.809140625</v>
+        <v>51.078091517857146</v>
       </c>
       <c r="F3">
-        <v>103.2045703125</v>
+        <v>117.76</v>
       </c>
       <c r="G3" t="str">
         <v>#F44336</v>
@@ -6215,22 +6215,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>2.6105873821609844</v>
+        <v>2.393038433647569</v>
       </c>
       <c r="D4" t="str">
         <v>points-0</v>
       </c>
       <c r="E4">
-        <v>50.249140625</v>
+        <v>51.078091517857146</v>
       </c>
       <c r="F4">
-        <v>121.49028459821429</v>
+        <v>104.96</v>
       </c>
       <c r="G4" t="str">
         <v>#F44336</v>
@@ -6238,22 +6238,22 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2.683103698332123</v>
+        <v>2.4655547498187076</v>
       </c>
       <c r="D5" t="str">
         <v>points-0</v>
       </c>
       <c r="E5">
-        <v>50.614854910714286</v>
+        <v>53.17485491071429</v>
       </c>
       <c r="F5">
-        <v>121.49028459821429</v>
+        <v>98.81599888392857</v>
       </c>
       <c r="G5" t="str">
         <v>#F44336</v>
@@ -6261,30 +6261,99 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>2.755620014503261</v>
+        <v>2.538071065989846</v>
       </c>
       <c r="D6" t="str">
         <v>points-0</v>
       </c>
       <c r="E6">
-        <v>49.51771205357143</v>
+        <v>52.809140625</v>
       </c>
       <c r="F6">
-        <v>121.1245703125</v>
+        <v>103.2045703125</v>
       </c>
       <c r="G6" t="str">
         <v>#F44336</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>2.6105873821609844</v>
+      </c>
+      <c r="D7" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E7">
+        <v>50.249140625</v>
+      </c>
+      <c r="F7">
+        <v>121.49028459821429</v>
+      </c>
+      <c r="G7" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>2.683103698332123</v>
+      </c>
+      <c r="D8" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E8">
+        <v>48.786283482142856</v>
+      </c>
+      <c r="F8">
+        <v>123.31885602678571</v>
+      </c>
+      <c r="G8" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>2.755620014503261</v>
+      </c>
+      <c r="D9" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E9">
+        <v>46.95771205357143</v>
+      </c>
+      <c r="F9">
+        <v>123.31885602678571</v>
+      </c>
+      <c r="G9" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
 </file>
